--- a/bank/hasil_konversi/permata_output.xlsx
+++ b/bank/hasil_konversi/permata_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,108 +474,192 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>188139902</v>
+        <v>76939992.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10/10/2024</t>
+          <t>04/06/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/10 Biaya adm. bulan OKTOBER 2024</t>
+          <t>PAY KARTU KREDIT 5498460025096193</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2500</v>
+        <v>33224480</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>188137402</v>
+        <v>43715512.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15/10/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15/10 PB DARI NI PUTU SAWITRI</t>
+          <t>TRF DARI NI KETUT KARSINI BANK</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8025000</v>
+        <v>2233833</v>
       </c>
       <c r="E4" t="n">
-        <v>196162402</v>
+        <v>45949345.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31/10/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/11 PENDAPATAN BUNGA</t>
+          <t>TRF DARI NI KETUT KARSINI BANK</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>81757</v>
+        <v>8250000</v>
       </c>
       <c r="E5" t="n">
-        <v>196244159</v>
+        <v>54199345.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31/10/2024</t>
+          <t>18/06/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/11 PAJAK ATAS BUNGA</t>
+          <t>QR PAYMENT 16.09.48 MONSIEUR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16351</v>
+        <v>130900</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>196227808</v>
+        <v>54068445.8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>PB KE NI PUTU SAWITRI 9996413192 08</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8025000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46043445.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>QR PAYMENT 16.22.27 SOULSHINE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1881550</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44161895.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PENDAPATAN BUNGA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E9" t="n">
+        <v>44172245.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAJAK ATAS BUNGA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2070</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>44170175.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>SALDO AKHIR</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>196227808</v>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>44170175.8</v>
       </c>
     </row>
   </sheetData>
